--- a/outputs/excel/emergency.xlsx
+++ b/outputs/excel/emergency.xlsx
@@ -508,81 +508,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cems-fire-historical-v1</t>
+          <t>efas-historical</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fire danger indices historical data from the Copernicus Emergency Management Service</t>
+          <t>River discharge and related historical data from the European Flood Awareness System</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>This data set provides complete historical reconstruction of meteorological conditions favourable to the start, spread and sustainability of fires. The fire danger metrics  provided are part of a vast dataset produced by the Copernicus Emergency Management Service for the
-European Forest Fire Information System (EFFIS). The European Forest Fire Information System incorporates the fire danger indices for three different models developed in Canada, United States and Australia. In this dataset the fire danger indices are calculated using weather forecast from historical simulations provided by ECMWF ERA5 reanalysis.
-ERA5 by combining  model data and  a vast set of quality controlled observations provides a  globally complete and consistent data-set and is regarded as a good proxy for observed atmospheric conditions.
-The selected data records in this data set are regularly extended with time as ERA5 forcing data become available. 
-This dataset is produced by ECMWF in its role of the computational centre for fire danger forecast of the CEMS,  on behalf of the Joint Research Centre which is the managing entity of the service.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-fire-historical-v1'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus CEMS']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[{'name': 'Copernicus Emergency Management Service'}]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0, -90, 360, 90]]}, 'temporal': {'interval': [['1940-01-03T00:00:00Z', '2025-12-02T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-fire-historical-v1/overview_7d52aa9bfd619151f13dba1d6a0c625edcb157696f3fbf0db3c24f0993f45e77.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/ObVmZLmujWun1v8ODWaaRNfQEAo=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-fire-historical-v1/overview_7d52aa9bfd619151f13dba1d6a0c625edcb157696f3fbf0db3c24f0993f45e77.png'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>efas-historical</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>River discharge and related historical data from the European Flood Awareness System</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>This dataset provides gridded modelled sub-daily and daily hydrological time series forced with meteorological observations. The data set is a consistent representation of the most important hydrological variables across the European Flood Awareness System (EFAS) domain. The temporal resolution is up to 30 years modelled time series of:
 River discharge
@@ -596,64 +530,64 @@
 All these datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/efas-historical'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Provider: Copernicus CEMS', 'Variable domain: Land (hydrology)']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>[{'name': 'ECMWF'}]</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['1991-01-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['1991-01-01T00:00:00Z', '2025-12-03T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/efas-historical/overview_ddd9074d456be00a54d03c320485bdbb1d1871507eccaa1039404a9c2c62fe31.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/lHpkSZaxXko-wA_Tt4GqwZhv-7U=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/efas-historical/overview_ddd9074d456be00a54d03c320485bdbb1d1871507eccaa1039404a9c2c62fe31.png'}}</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Collection</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>1.1.0</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>cems-glofas-forecast</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>River discharge and related forecasted data by the Global Flood Awareness System</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>This dataset provides an ensemble of forecast time series of gridded hydrological data. The data set is a product of the Global Flood Awareness System (GloFAS) and offers a consistent representation of key hydrological variables across the global domain including:
 River discharge
@@ -666,64 +600,64 @@
 All the GloFAS and EFAS datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-glofas-forecast'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Provider: Copernicus CEMS', 'Variable domain: Land (hydrology)', 'Product type: Forecasts']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{'name': 'ECMWF'}]</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['2019-11-05T00:00:00Z', '2025-12-04T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['2019-11-05T00:00:00Z', '2025-12-06T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-glofas-forecast/overview_36fc7b601512e3619bc5ba70ae0488b911d9d74e203400f9a321f5745768f6a5.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/5Ei37SA8oZby9C0Xvw2VoF6dWag=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-glofas-forecast/overview_36fc7b601512e3619bc5ba70ae0488b911d9d74e203400f9a321f5745768f6a5.png'}}</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Collection</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>1.1.0</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>cems-glofas-historical</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>River discharge and related historical data from the Global Flood Awareness System</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>This dataset provides gridded modelled daily hydrological time series forced with meteorological reanalysis data. The data set is a product of the Global Flood Awareness System (GloFAS) and offers a consistent representation of key hydrological variables across the global domain including:
 River discharge
@@ -736,29 +670,95 @@
 All the GloFAS and EFAS datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-glofas-historical'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Provider: Copernicus CEMS', 'Variable domain: Land (hydrology)']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2025-12-04T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-glofas-historical/overview_779934fbef02d194554ae626a1c5570e24a2e2a2e4b2ae7e8c54b4ca0c7fe9d0.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/326qPafXpnwSyVeWE_zprZ7Bl9Y=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-glofas-historical/overview_779934fbef02d194554ae626a1c5570e24a2e2a2e4b2ae7e8c54b4ca0c7fe9d0.png'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cems-fire-historical-v1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fire danger indices historical data from the Copernicus Emergency Management Service</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>This data set provides complete historical reconstruction of meteorological conditions favourable to the start, spread and sustainability of fires. The fire danger metrics  provided are part of a vast dataset produced by the Copernicus Emergency Management Service for the
+European Forest Fire Information System (EFFIS). The European Forest Fire Information System incorporates the fire danger indices for three different models developed in Canada, United States and Australia. In this dataset the fire danger indices are calculated using weather forecast from historical simulations provided by ECMWF ERA5 reanalysis.
+ERA5 by combining  model data and  a vast set of quality controlled observations provides a  globally complete and consistent data-set and is regarded as a good proxy for observed atmospheric conditions.
+The selected data records in this data set are regularly extended with time as ERA5 forcing data become available. 
+This dataset is produced by ECMWF in its role of the computational centre for fire danger forecast of the CEMS,  on behalf of the Joint Research Centre which is the managing entity of the service.</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-glofas-historical'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-fire-historical-v1'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Provider: Copernicus CEMS', 'Variable domain: Land (hydrology)']</t>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus CEMS']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>CC-BY-4.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[{'name': 'ECMWF'}]</t>
+          <t>[{'name': 'Copernicus Emergency Management Service'}]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2025-12-02T00:00:00Z']]}}</t>
+          <t>{'spatial': {'bbox': [[0, -90, 360, 90]]}, 'temporal': {'interval': [['1940-01-03T00:00:00Z', '2025-12-04T00:00:00Z']]}}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-glofas-historical/overview_779934fbef02d194554ae626a1c5570e24a2e2a2e4b2ae7e8c54b4ca0c7fe9d0.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/326qPafXpnwSyVeWE_zprZ7Bl9Y=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-glofas-historical/overview_779934fbef02d194554ae626a1c5570e24a2e2a2e4b2ae7e8c54b4ca0c7fe9d0.png'}}</t>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-fire-historical-v1/overview_7d52aa9bfd619151f13dba1d6a0c625edcb157696f3fbf0db3c24f0993f45e77.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/ObVmZLmujWun1v8ODWaaRNfQEAo=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-fire-historical-v1/overview_7d52aa9bfd619151f13dba1d6a0c625edcb157696f3fbf0db3c24f0993f45e77.png'}}</t>
         </is>
       </c>
     </row>
@@ -785,15 +785,80 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>cems-fire-seasonal</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Seasonal forecast of fire danger indices from the Copernicus Emergency Management Service</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>This dataset offers modeled daily fire danger time series, driven by seasonal weather forecasts. It provides long-range predictions of meteorological conditions conducive to the initiation, spread, and persistence of fires. The fire danger metrics included in this dataset are part of an extensive dataset produced by the Copernicus Emergency Management Service (CEMS) for the European Forest Fire Information System (EFFIS) and the Global Wildfire Information System (GWIS). EFFIS and GWIS are used for monitoring and forecasting fire danger at both European and global scales. The dataset incorporates fire danger indices from the U.S. Forest Service National Fire-Danger Rating System (NFDRS), the Canadian Forest Service Fire Weather Index Rating System (FWI), and the Australian McArthur (Mark 5) rating systems.
+This dataset was generated by driving the Global ECMWF Fire Forecast (GEFF) model with seasonal weather ensemble forecasts from the European Centre for Medium-Range Weather Forecasts (ECMWF) System 5 (SEAS5) prediction system.These forecasts initially consist of 25 ensemble members until December 2016, referred to as re-forecasts. After that period, they consist of seasonal forecasts with 51 members. It is important to note that the re-forecast dataset was initialized using ERA-Interim analysis data, while forecast simulations from 2016 onward are initialized using ECMWF operational analysis. Therefore, it is suggested that the period 1981-2016 be used as a reference period, while the period 2017-to present as a real time forecast. 
+For both the re-forecast (1981-2016) and forecast periods (2017-present), the temporal resolution is daily forecasts at 12:00 local time, available once a month, with a prediction horizon of 216 days (equivalent to 7 months). The data records in this dataset will be extended over time as seasonal  forcing data becomes available. Once the SEAS5 operation ceases, the dataset will be updated with the next ECMWF seasonal system (SEAS6). It is essential to note that this is not a real-time service, as real-time forecasts are accessible through the EFFIS web services.
+These seasonal forecasts can be used to assess the performance of the forecasting system or to develop tools for statistically correcting forecast errors. ECMWF produces this dataset as the computational center for fire danger forecasting within the Copernicus Emergency Management Service (CEMS) on behalf of the Joint Research Centre, which serves as the managing entity for this service.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-fire-seasonal'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus CEMS', 'Product type: Seasonal forecasts']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-179.95, -89.95, 179.95, 89.95]]}, 'temporal': {'interval': [['1981-02-01T00:00:00Z', '2025-11-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-fire-seasonal/overview_6a09913a8735343a5dc4801f5394a4448c819060f84fd021b7b4291e4ef231da.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/c8wgzziXyVvvElQIy6hl9nTQSrc=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-fire-seasonal/overview_6a09913a8735343a5dc4801f5394a4448c819060f84fd021b7b4291e4ef231da.png'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>efas-forecast</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>River discharge and related forecasted data by the European Flood Awareness System</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>This dataset provides gridded modelled hydrological time series forced with medium-range meteorological forecasts. The data is a consistent representation of the most important hydrological variables across the European Flood Awareness System (EFAS) domain. The temporal resolution is sub-daily high-resolution and ensemble forecasts of:
 River discharge
@@ -807,64 +872,64 @@
 All these datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/efas-forecast'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Europe', 'Provider: Copernicus CEMS', 'Variable domain: Land (hydrology)', 'Product type: Forecasts']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{'name': 'ECMWF'}]</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['2018-10-11T00:00:00Z', '2025-11-03T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/efas-forecast/overview_ddd9074d456be00a54d03c320485bdbb1d1871507eccaa1039404a9c2c62fe31.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/qaKs1FDYFXDR1n4PompbSKLekhY=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/efas-forecast/overview_ddd9074d456be00a54d03c320485bdbb1d1871507eccaa1039404a9c2c62fe31.png'}}</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Collection</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>1.1.0</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>cems-glofas-seasonal</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Seasonal forecasts of river discharge and related data by the Global Flood Awareness System</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>This dataset provides an ensemble of forecasted time series of gridded hydrological data forced with seasonal meteorological forecasts. The data set is a product of the Global Flood Awareness System (GloFAS) and offers a consistent representation of key hydrological variables across the global domain including:
 River discharge
@@ -877,64 +942,64 @@
 All these datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-glofas-seasonal'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['Spatial coverage: Global', 'Provider: Copernicus CEMS', 'Product type: Seasonal forecasts', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{'name': 'ECMWF'}]</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0, -60, 360, 90]]}, 'temporal': {'interval': [['2020-12-01T00:00:00Z', '2025-11-01T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-glofas-seasonal/overview_0885f764fd7ce14e5c511c5751d22b0610d3004d3de56f389562cace8f67e2bc.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/S_cANS_r0oitqGUjgW8BjGlgg1s=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-glofas-seasonal/overview_0885f764fd7ce14e5c511c5751d22b0610d3004d3de56f389562cace8f67e2bc.png'}}</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Collection</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>1.1.0</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>efas-seasonal</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Seasonal forecasts of river discharge and related data by the European Flood Awareness System</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>This dataset provides gridded modelled daily hydrological time series forced with seasonal meteorological forecasts. The dataset is a consistent representation of the most important hydrological variables across the European Flood Awareness (EFAS) domain. The temporal resolution is daily forecasts initialised once a month consisting of:
 River discharge
@@ -948,104 +1013,39 @@
 All these datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/efas-seasonal'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['Spatial coverage: Europe', 'Provider: Copernicus CEMS', 'Product type: Seasonal forecasts', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{'name': 'ECMWF'}]</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['2020-11-01T00:00:00Z', '2025-11-01T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/efas-seasonal/overview_027e11ba4b15ebcb3217e766cb5c74cfd08665cf129d439a9ef52724a1961fa0.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/O1bh_HpiA2OYGzlcy0IGnZu_pAI=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/efas-seasonal/overview_027e11ba4b15ebcb3217e766cb5c74cfd08665cf129d439a9ef52724a1961fa0.png'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>cems-fire-seasonal</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Seasonal forecast of fire danger indices from the Copernicus Emergency Management Service</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>This dataset offers modeled daily fire danger time series, driven by seasonal weather forecasts. It provides long-range predictions of meteorological conditions conducive to the initiation, spread, and persistence of fires. The fire danger metrics included in this dataset are part of an extensive dataset produced by the Copernicus Emergency Management Service (CEMS) for the European Forest Fire Information System (EFFIS) and the Global Wildfire Information System (GWIS). EFFIS and GWIS are used for monitoring and forecasting fire danger at both European and global scales. The dataset incorporates fire danger indices from the U.S. Forest Service National Fire-Danger Rating System (NFDRS), the Canadian Forest Service Fire Weather Index Rating System (FWI), and the Australian McArthur (Mark 5) rating systems.
-This dataset was generated by driving the Global ECMWF Fire Forecast (GEFF) model with seasonal weather ensemble forecasts from the European Centre for Medium-Range Weather Forecasts (ECMWF) System 5 (SEAS5) prediction system.These forecasts initially consist of 25 ensemble members until December 2016, referred to as re-forecasts. After that period, they consist of seasonal forecasts with 51 members. It is important to note that the re-forecast dataset was initialized using ERA-Interim analysis data, while forecast simulations from 2016 onward are initialized using ECMWF operational analysis. Therefore, it is suggested that the period 1981-2016 be used as a reference period, while the period 2017-to present as a real time forecast. 
-For both the re-forecast (1981-2016) and forecast periods (2017-present), the temporal resolution is daily forecasts at 12:00 local time, available once a month, with a prediction horizon of 216 days (equivalent to 7 months). The data records in this dataset will be extended over time as seasonal  forcing data becomes available. Once the SEAS5 operation ceases, the dataset will be updated with the next ECMWF seasonal system (SEAS6). It is essential to note that this is not a real-time service, as real-time forecasts are accessible through the EFFIS web services.
-These seasonal forecasts can be used to assess the performance of the forecasting system or to develop tools for statistically correcting forecast errors. ECMWF produces this dataset as the computational center for fire danger forecasting within the Copernicus Emergency Management Service (CEMS) on behalf of the Joint Research Centre, which serves as the managing entity for this service.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-fire-seasonal'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus CEMS', 'Product type: Seasonal forecasts']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-179.95, -89.95, 179.95, 89.95]]}, 'temporal': {'interval': [['1981-02-01T00:00:00Z', '2025-10-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-fire-seasonal/overview_6a09913a8735343a5dc4801f5394a4448c819060f84fd021b7b4291e4ef231da.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/c8wgzziXyVvvElQIy6hl9nTQSrc=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-fire-seasonal/overview_6a09913a8735343a5dc4801f5394a4448c819060f84fd021b7b4291e4ef231da.png'}}</t>
         </is>
       </c>
     </row>

--- a/outputs/excel/emergency.xlsx
+++ b/outputs/excel/emergency.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,62 +422,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>stac_version</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>links</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>keywords</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>providers</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>extent</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>summaries</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>assets</t>
         </is>
@@ -508,15 +496,85 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>cems-glofas-forecast</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>River discharge and related forecasted data by the Global Flood Awareness System</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>This dataset provides an ensemble of forecast time series of gridded hydrological data. The data set is a product of the Global Flood Awareness System (GloFAS) and offers a consistent representation of key hydrological variables across the global domain including:
+River discharge
+Soil wetness index (root zone)
+Snow water equivalent
+Runoff water equivalent (surface plus subsurface)
+Also provided are two ancillary files for interpretation, one containing upstream area data and the other containing elevation data (see the table of related variables and the associated link in the documentation).
+This dataset was produced by forcing the open-source LISFLOOD hydrological model with input from the European Centre for Medium-range Weather Forecasts (ECMWF) ensemble forecast combined with the ECMWF extended-range ensemble forecast up to 30 days.
+Companion datasets, also available through the EWDS, are historical simulations which can be used to derive the hydrological climatology and for verification; reforecasts for research, local skill assessment and post-processing; and seasonal forecasts and reforecasts for users looking for longer leadtime forecasts. For users looking specifically for European hydrological data, we refer to the European Flood Awareness System (EFAS) forecasts and historical simulations.
+All the GloFAS and EFAS datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-glofas-forecast'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Provider: Copernicus CEMS', 'Variable domain: Land (hydrology)', 'Product type: Forecasts']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['2019-11-05T00:00:00Z', '2026-02-03T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-glofas-forecast/overview_36fc7b601512e3619bc5ba70ae0488b911d9d74e203400f9a321f5745768f6a5.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/5Ei37SA8oZby9C0Xvw2VoF6dWag=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-glofas-forecast/overview_36fc7b601512e3619bc5ba70ae0488b911d9d74e203400f9a321f5745768f6a5.png'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>efas-historical</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>River discharge and related historical data from the European Flood Awareness System</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>This dataset provides gridded modelled sub-daily and daily hydrological time series forced with meteorological observations. The data set is a consistent representation of the most important hydrological variables across the European Flood Awareness System (EFAS) domain. The temporal resolution is up to 30 years modelled time series of:
 River discharge
@@ -530,109 +588,39 @@
 All these datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/efas-historical'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Provider: Copernicus CEMS', 'Variable domain: Land (hydrology)']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{'name': 'ECMWF'}]</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['1991-01-01T00:00:00Z', '2025-12-03T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['1991-01-01T00:00:00Z', '2026-01-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/efas-historical/overview_ddd9074d456be00a54d03c320485bdbb1d1871507eccaa1039404a9c2c62fe31.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/lHpkSZaxXko-wA_Tt4GqwZhv-7U=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/efas-historical/overview_ddd9074d456be00a54d03c320485bdbb1d1871507eccaa1039404a9c2c62fe31.png'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>cems-glofas-forecast</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>River discharge and related forecasted data by the Global Flood Awareness System</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>This dataset provides an ensemble of forecast time series of gridded hydrological data. The data set is a product of the Global Flood Awareness System (GloFAS) and offers a consistent representation of key hydrological variables across the global domain including:
-River discharge
-Soil wetness index (root zone)
-Snow water equivalent
-Runoff water equivalent (surface plus subsurface)
-Also provided are two ancillary files for interpretation, one containing upstream area data and the other containing elevation data (see the table of related variables and the associated link in the documentation).
-This dataset was produced by forcing the open-source LISFLOOD hydrological model with input from the European Centre for Medium-range Weather Forecasts (ECMWF) ensemble forecast combined with the ECMWF extended-range ensemble forecast up to 30 days.
-Companion datasets, also available through the EWDS, are historical simulations which can be used to derive the hydrological climatology and for verification; reforecasts for research, local skill assessment and post-processing; and seasonal forecasts and reforecasts for users looking for longer leadtime forecasts. For users looking specifically for European hydrological data, we refer to the European Flood Awareness System (EFAS) forecasts and historical simulations.
-All the GloFAS and EFAS datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-glofas-forecast'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Provider: Copernicus CEMS', 'Variable domain: Land (hydrology)', 'Product type: Forecasts']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['2019-11-05T00:00:00Z', '2025-12-06T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-glofas-forecast/overview_36fc7b601512e3619bc5ba70ae0488b911d9d74e203400f9a321f5745768f6a5.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/5Ei37SA8oZby9C0Xvw2VoF6dWag=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-glofas-forecast/overview_36fc7b601512e3619bc5ba70ae0488b911d9d74e203400f9a321f5745768f6a5.png'}}</t>
         </is>
       </c>
     </row>
@@ -649,15 +637,81 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>cems-fire-historical-v1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fire danger indices historical data from the Copernicus Emergency Management Service</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>This data set provides complete historical reconstruction of meteorological conditions favourable to the start, spread and sustainability of fires. The fire danger metrics  provided are part of a vast dataset produced by the Copernicus Emergency Management Service for the
+European Forest Fire Information System (EFFIS). The European Forest Fire Information System incorporates the fire danger indices for three different models developed in Canada, United States and Australia. In this dataset the fire danger indices are calculated using weather forecast from historical simulations provided by ECMWF ERA5 reanalysis.
+ERA5 by combining  model data and  a vast set of quality controlled observations provides a  globally complete and consistent data-set and is regarded as a good proxy for observed atmospheric conditions.
+The selected data records in this data set are regularly extended with time as ERA5 forcing data become available. 
+This dataset is produced by ECMWF in its role of the computational centre for fire danger forecast of the CEMS,  on behalf of the Joint Research Centre which is the managing entity of the service.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-fire-historical-v1'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus CEMS']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[{'name': 'Copernicus Emergency Management Service'}]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0, -90, 360, 90]]}, 'temporal': {'interval': [['1940-01-03T00:00:00Z', '2026-01-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-fire-historical-v1/overview_7d52aa9bfd619151f13dba1d6a0c625edcb157696f3fbf0db3c24f0993f45e77.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/ObVmZLmujWun1v8ODWaaRNfQEAo=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-fire-historical-v1/overview_7d52aa9bfd619151f13dba1d6a0c625edcb157696f3fbf0db3c24f0993f45e77.png'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>cems-glofas-historical</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>River discharge and related historical data from the Global Flood Awareness System</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>This dataset provides gridded modelled daily hydrological time series forced with meteorological reanalysis data. The data set is a product of the Global Flood Awareness System (GloFAS) and offers a consistent representation of key hydrological variables across the global domain including:
 River discharge
@@ -670,105 +724,39 @@
 All the GloFAS and EFAS datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-glofas-historical'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Provider: Copernicus CEMS', 'Variable domain: Land (hydrology)']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{'name': 'ECMWF'}]</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2025-12-04T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2026-01-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-glofas-historical/overview_779934fbef02d194554ae626a1c5570e24a2e2a2e4b2ae7e8c54b4ca0c7fe9d0.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/326qPafXpnwSyVeWE_zprZ7Bl9Y=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-glofas-historical/overview_779934fbef02d194554ae626a1c5570e24a2e2a2e4b2ae7e8c54b4ca0c7fe9d0.png'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>cems-fire-historical-v1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fire danger indices historical data from the Copernicus Emergency Management Service</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>This data set provides complete historical reconstruction of meteorological conditions favourable to the start, spread and sustainability of fires. The fire danger metrics  provided are part of a vast dataset produced by the Copernicus Emergency Management Service for the
-European Forest Fire Information System (EFFIS). The European Forest Fire Information System incorporates the fire danger indices for three different models developed in Canada, United States and Australia. In this dataset the fire danger indices are calculated using weather forecast from historical simulations provided by ECMWF ERA5 reanalysis.
-ERA5 by combining  model data and  a vast set of quality controlled observations provides a  globally complete and consistent data-set and is regarded as a good proxy for observed atmospheric conditions.
-The selected data records in this data set are regularly extended with time as ERA5 forcing data become available. 
-This dataset is produced by ECMWF in its role of the computational centre for fire danger forecast of the CEMS,  on behalf of the Joint Research Centre which is the managing entity of the service.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-fire-historical-v1'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus CEMS']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[{'name': 'Copernicus Emergency Management Service'}]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0, -90, 360, 90]]}, 'temporal': {'interval': [['1940-01-03T00:00:00Z', '2025-12-04T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-fire-historical-v1/overview_7d52aa9bfd619151f13dba1d6a0c625edcb157696f3fbf0db3c24f0993f45e77.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/ObVmZLmujWun1v8ODWaaRNfQEAo=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-fire-historical-v1/overview_7d52aa9bfd619151f13dba1d6a0c625edcb157696f3fbf0db3c24f0993f45e77.png'}}</t>
         </is>
       </c>
     </row>
@@ -785,80 +773,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cems-fire-seasonal</t>
+          <t>efas-forecast</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Seasonal forecast of fire danger indices from the Copernicus Emergency Management Service</t>
+          <t>River discharge and related forecasted data by the European Flood Awareness System</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>This dataset offers modeled daily fire danger time series, driven by seasonal weather forecasts. It provides long-range predictions of meteorological conditions conducive to the initiation, spread, and persistence of fires. The fire danger metrics included in this dataset are part of an extensive dataset produced by the Copernicus Emergency Management Service (CEMS) for the European Forest Fire Information System (EFFIS) and the Global Wildfire Information System (GWIS). EFFIS and GWIS are used for monitoring and forecasting fire danger at both European and global scales. The dataset incorporates fire danger indices from the U.S. Forest Service National Fire-Danger Rating System (NFDRS), the Canadian Forest Service Fire Weather Index Rating System (FWI), and the Australian McArthur (Mark 5) rating systems.
-This dataset was generated by driving the Global ECMWF Fire Forecast (GEFF) model with seasonal weather ensemble forecasts from the European Centre for Medium-Range Weather Forecasts (ECMWF) System 5 (SEAS5) prediction system.These forecasts initially consist of 25 ensemble members until December 2016, referred to as re-forecasts. After that period, they consist of seasonal forecasts with 51 members. It is important to note that the re-forecast dataset was initialized using ERA-Interim analysis data, while forecast simulations from 2016 onward are initialized using ECMWF operational analysis. Therefore, it is suggested that the period 1981-2016 be used as a reference period, while the period 2017-to present as a real time forecast. 
-For both the re-forecast (1981-2016) and forecast periods (2017-present), the temporal resolution is daily forecasts at 12:00 local time, available once a month, with a prediction horizon of 216 days (equivalent to 7 months). The data records in this dataset will be extended over time as seasonal  forcing data becomes available. Once the SEAS5 operation ceases, the dataset will be updated with the next ECMWF seasonal system (SEAS6). It is essential to note that this is not a real-time service, as real-time forecasts are accessible through the EFFIS web services.
-These seasonal forecasts can be used to assess the performance of the forecasting system or to develop tools for statistically correcting forecast errors. ECMWF produces this dataset as the computational center for fire danger forecasting within the Copernicus Emergency Management Service (CEMS) on behalf of the Joint Research Centre, which serves as the managing entity for this service.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-fire-seasonal'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus CEMS', 'Product type: Seasonal forecasts']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-179.95, -89.95, 179.95, 89.95]]}, 'temporal': {'interval': [['1981-02-01T00:00:00Z', '2025-11-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-fire-seasonal/overview_6a09913a8735343a5dc4801f5394a4448c819060f84fd021b7b4291e4ef231da.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/c8wgzziXyVvvElQIy6hl9nTQSrc=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-fire-seasonal/overview_6a09913a8735343a5dc4801f5394a4448c819060f84fd021b7b4291e4ef231da.png'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>efas-forecast</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>River discharge and related forecasted data by the European Flood Awareness System</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>This dataset provides gridded modelled hydrological time series forced with medium-range meteorological forecasts. The data is a consistent representation of the most important hydrological variables across the European Flood Awareness System (EFAS) domain. The temporal resolution is sub-daily high-resolution and ensemble forecasts of:
 River discharge
@@ -872,64 +795,64 @@
 All these datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/efas-forecast'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Europe', 'Provider: Copernicus CEMS', 'Variable domain: Land (hydrology)', 'Product type: Forecasts']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{'name': 'ECMWF'}]</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['2018-10-11T00:00:00Z', '2025-11-03T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['2018-10-11T00:00:00Z', '2025-12-29T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/efas-forecast/overview_ddd9074d456be00a54d03c320485bdbb1d1871507eccaa1039404a9c2c62fe31.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/qaKs1FDYFXDR1n4PompbSKLekhY=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/efas-forecast/overview_ddd9074d456be00a54d03c320485bdbb1d1871507eccaa1039404a9c2c62fe31.png'}}</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Collection</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>1.1.0</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>cems-glofas-seasonal</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Seasonal forecasts of river discharge and related data by the Global Flood Awareness System</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>This dataset provides an ensemble of forecasted time series of gridded hydrological data forced with seasonal meteorological forecasts. The data set is a product of the Global Flood Awareness System (GloFAS) and offers a consistent representation of key hydrological variables across the global domain including:
 River discharge
@@ -942,64 +865,64 @@
 All these datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-glofas-seasonal'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['Spatial coverage: Global', 'Provider: Copernicus CEMS', 'Product type: Seasonal forecasts', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{'name': 'ECMWF'}]</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0, -60, 360, 90]]}, 'temporal': {'interval': [['2020-12-01T00:00:00Z', '2025-11-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0, -60, 360, 90]]}, 'temporal': {'interval': [['2020-12-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-glofas-seasonal/overview_0885f764fd7ce14e5c511c5751d22b0610d3004d3de56f389562cace8f67e2bc.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/S_cANS_r0oitqGUjgW8BjGlgg1s=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-glofas-seasonal/overview_0885f764fd7ce14e5c511c5751d22b0610d3004d3de56f389562cace8f67e2bc.png'}}</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Collection</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>1.1.0</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>efas-seasonal</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Seasonal forecasts of river discharge and related data by the European Flood Awareness System</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>This dataset provides gridded modelled daily hydrological time series forced with seasonal meteorological forecasts. The dataset is a consistent representation of the most important hydrological variables across the European Flood Awareness (EFAS) domain. The temporal resolution is daily forecasts initialised once a month consisting of:
 River discharge
@@ -1013,19 +936,84 @@
 All these datasets are part of the operational flood forecasting within the Copernicus Emergency Management Service (CEMS), which is managed, technically implemented and developed by the European Commission’s Joint Research Centre.</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/efas-seasonal'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Spatial coverage: Europe', 'Provider: Copernicus CEMS', 'Product type: Seasonal forecasts', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['2020-11-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/efas-seasonal/overview_027e11ba4b15ebcb3217e766cb5c74cfd08665cf129d439a9ef52724a1961fa0.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/O1bh_HpiA2OYGzlcy0IGnZu_pAI=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/efas-seasonal/overview_027e11ba4b15ebcb3217e766cb5c74cfd08665cf129d439a9ef52724a1961fa0.png'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cems-fire-seasonal</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Seasonal forecast of fire danger indices from the Copernicus Emergency Management Service</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>This dataset offers modeled daily fire danger time series, driven by seasonal weather forecasts. It provides long-range predictions of meteorological conditions conducive to the initiation, spread, and persistence of fires. The fire danger metrics included in this dataset are part of an extensive dataset produced by the Copernicus Emergency Management Service (CEMS) for the European Forest Fire Information System (EFFIS) and the Global Wildfire Information System (GWIS). EFFIS and GWIS are used for monitoring and forecasting fire danger at both European and global scales. The dataset incorporates fire danger indices from the U.S. Forest Service National Fire-Danger Rating System (NFDRS), the Canadian Forest Service Fire Weather Index Rating System (FWI), and the Australian McArthur (Mark 5) rating systems.
+This dataset was generated by driving the Global ECMWF Fire Forecast (GEFF) model with seasonal weather ensemble forecasts from the European Centre for Medium-Range Weather Forecasts (ECMWF) System 5 (SEAS5) prediction system.These forecasts initially consist of 25 ensemble members until December 2016, referred to as re-forecasts. After that period, they consist of seasonal forecasts with 51 members. It is important to note that the re-forecast dataset was initialized using ERA-Interim analysis data, while forecast simulations from 2016 onward are initialized using ECMWF operational analysis. Therefore, it is suggested that the period 1981-2016 be used as a reference period, while the period 2017-to present as a real time forecast. 
+For both the re-forecast (1981-2016) and forecast periods (2017-present), the temporal resolution is daily forecasts at 12:00 local time, available once a month, with a prediction horizon of 216 days (equivalent to 7 months). The data records in this dataset will be extended over time as seasonal  forcing data becomes available. Once the SEAS5 operation ceases, the dataset will be updated with the next ECMWF seasonal system (SEAS6). It is essential to note that this is not a real-time service, as real-time forecasts are accessible through the EFFIS web services.
+These seasonal forecasts can be used to assess the performance of the forecasting system or to develop tools for statistically correcting forecast errors. ECMWF produces this dataset as the computational center for fire danger forecasting within the Copernicus Emergency Management Service (CEMS) on behalf of the Joint Research Centre, which serves as the managing entity for this service.</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/efas-seasonal'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/collections/cems-fire-seasonal'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://ewds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Spatial coverage: Europe', 'Provider: Copernicus CEMS', 'Product type: Seasonal forecasts', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present']</t>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus CEMS', 'Product type: Seasonal forecasts']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>CC-BY-4.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1035,7 +1023,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{'spatial': {'bbox': [[0, -70, 360, 70]]}, 'temporal': {'interval': [['2020-11-01T00:00:00Z', '2025-11-01T00:00:00Z']]}}</t>
+          <t>{'spatial': {'bbox': [[-179.95, -89.95, 179.95, 89.95]]}, 'temporal': {'interval': [['1981-02-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1045,7 +1033,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/efas-seasonal/overview_027e11ba4b15ebcb3217e766cb5c74cfd08665cf129d439a9ef52724a1961fa0.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/O1bh_HpiA2OYGzlcy0IGnZu_pAI=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/efas-seasonal/overview_027e11ba4b15ebcb3217e766cb5c74cfd08665cf129d439a9ef52724a1961fa0.png'}}</t>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/cems-fire-seasonal/overview_6a09913a8735343a5dc4801f5394a4448c819060f84fd021b7b4291e4ef231da.png', 'type': 'image/jpg', 'roles': ['thumbnail'], 'thumborHref': 'https://ewds.climate.copernicus.eu/thumbnails/c8wgzziXyVvvElQIy6hl9nTQSrc=/150x0/filters:format(webp)/object-store.os-api.cci2.ecmwf.int/cci2-prod-catalogue/resources/cems-fire-seasonal/overview_6a09913a8735343a5dc4801f5394a4448c819060f84fd021b7b4291e4ef231da.png'}}</t>
         </is>
       </c>
     </row>
